--- a/test_data/CustomerInfoAPIs.xlsx
+++ b/test_data/CustomerInfoAPIs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Desktop\CSApp_AutoTest_janis\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Desktop\CSAPP_5api\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C33D12-06F2-4739-9E32-6A8F92079DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36658EC-B1B1-4AFC-A89A-D8D6334DEF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="696" yWindow="2184" windowWidth="17280" windowHeight="8964" xr2:uid="{D90D4049-E18D-4223-B876-5288D8845B9C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D90D4049-E18D-4223-B876-5288D8845B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>params</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,17 +62,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"cs_app":{"uid":"82800","phone_nbr":"09278***88      ","subscrid":"14796488","api_type":"CI0033","gprs":{},"type":"P5G","ret_code":"0","primary":{"charge_fee":999,"package_code":"SD-AB1","charge_code":"5AB","charge_description":"5G 999型","short_desc":"999型","msisdn":"09278***88      "}}}</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">{
   "token":"DEV",
-  "os":"android",
+  "os":"ios",
   "ver":"9.13.3",
   </t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -93,37 +95,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{"cs_app":{"uid":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>82800</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>","phone_nbr":"09278***88      ","subscrid":"14796488","api_type":"CI0033","gprs":{},"type":"P5G","ret_code":"0","primary":{"charge_fee":1199,"package_code":"SD-AC1","charge_code":"5AC","charge_description":"5G 1199型","short_desc":"1199型","msisdn":"09278***88      "}}}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{
+  "token":"DEV",
+  "os":"ios",
+  "ver":"9.13.3",
+  "type":"CI0033"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1199 or 999 會變動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首頁資費資訊</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,7 +144,13 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -176,7 +178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,6 +190,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCBABB-C1AD-483E-9ACA-C3BBA4EF43CA}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -534,10 +539,12 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="50" style="3" customWidth="1"/>
     <col min="3" max="3" width="255.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -547,8 +554,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="108" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -558,8 +568,14 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="108" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -567,29 +583,47 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="108" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="108" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
